--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="238">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}backport-notification-bundle-1:A notification bundle MUST have the BackportSubscriptionStatus as the first entry {entry.first().resource.is(SubscriptionStatus)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -207,311 +207,107 @@
 </t>
   </si>
   <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Bundle.meta.extension</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
+    <t>Bundle.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Bundle.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>subscriptionEventCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-subscription-event-count}
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Bundle.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>bundleEventCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-bundle-event-count}
-</t>
-  </si>
-  <si>
-    <t>subscriptionTopicUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-subscription-topic-url}
-</t>
-  </si>
-  <si>
-    <t>subscriptionUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-subscription-url}
-</t>
-  </si>
-  <si>
-    <t>notificationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-notification-type}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Bundle.meta.lastUpdated</t>
+    <t>Persistent identifier for the bundle</t>
+  </si>
+  <si>
+    <t>A persistent identifier for the bundle that won't change as a bundle is copied from server to server.</t>
+  </si>
+  <si>
+    <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
+  </si>
+  <si>
+    <t>ClinicalDocument.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Bundle.type</t>
+  </si>
+  <si>
+    <t>document | message | transaction | transaction-response | batch | batch-response | history | searchset | collection</t>
+  </si>
+  <si>
+    <t>Indicates the purpose of this bundle - how it is intended to be used.</t>
+  </si>
+  <si>
+    <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates the purpose of a bundle - how it is intended to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bundle-type|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Bundle.timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">instant
 </t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Bundle.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Bundle.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Bundle.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Bundle.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Bundle.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Bundle.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Bundle.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Persistent identifier for the bundle</t>
-  </si>
-  <si>
-    <t>A persistent identifier for the bundle that won't change as a bundle is copied from server to server.</t>
-  </si>
-  <si>
-    <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>ClinicalDocument.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Bundle.type</t>
-  </si>
-  <si>
-    <t>document | message | transaction | transaction-response | batch | batch-response | history | searchset | collection</t>
-  </si>
-  <si>
-    <t>Indicates the purpose of this bundle - how it is intended to be used.</t>
-  </si>
-  <si>
-    <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates the purpose of a bundle - how it is intended to be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/bundle-type|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Bundle.timestamp</t>
   </si>
   <si>
     <t>When the bundle was assembled</t>
@@ -577,6 +373,18 @@
     <t>Bundle.link.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -584,6 +392,10 @@
 user content</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -591,6 +403,13 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Bundle.link.modifierExtension</t>
@@ -638,6 +457,16 @@
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:resource}
+</t>
+  </si>
+  <si>
+    <t>Slice based on resource</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
@@ -904,6 +733,22 @@
   <si>
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
+  </si>
+  <si>
+    <t>subscriptionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-subscription-status}
+</t>
+  </si>
+  <si>
+    <t>Operation Request or Response</t>
+  </si>
+  <si>
+    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
+  </si>
+  <si>
+    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1071,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM62"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1081,7 +926,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1107,7 +952,7 @@
     <col min="25" max="25" width="49.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.58203125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1588,21 +1433,23 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1651,7 +1498,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1663,13 +1510,13 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1680,7 +1527,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1688,10 +1535,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1711,7 +1558,9 @@
       <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
         <v>40</v>
@@ -1736,43 +1585,43 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1787,42 +1636,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s" s="2">
         <v>77</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1871,19 +1720,19 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
@@ -1892,19 +1741,17 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>40</v>
       </c>
@@ -1916,24 +1763,26 @@
         <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>40</v>
@@ -1943,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>40</v>
@@ -1958,13 +1807,13 @@
         <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>40</v>
@@ -1982,19 +1831,19 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>40</v>
@@ -2006,45 +1855,45 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -2093,19 +1942,19 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2114,48 +1963,48 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2204,19 +2053,19 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2231,42 +2080,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2315,7 +2164,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2327,7 +2176,7 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2344,7 +2193,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2364,20 +2213,18 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2426,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2438,13 +2285,13 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2455,18 +2302,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2475,19 +2322,19 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2537,25 +2384,25 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2566,41 +2413,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2648,25 +2497,25 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2677,7 +2526,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2685,10 +2534,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2700,17 +2549,15 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2759,13 +2606,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2788,7 +2635,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2796,10 +2643,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2811,17 +2658,15 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2846,13 +2691,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2870,13 +2715,13 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -2899,7 +2744,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2907,7 +2752,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>42</v>
@@ -2922,17 +2767,15 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2957,31 +2800,31 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2993,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
@@ -3010,7 +2853,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3027,23 +2870,21 @@
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3092,7 +2933,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3104,13 +2945,13 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3121,18 +2962,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3144,16 +2985,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3179,13 +3020,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3203,25 +3044,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3232,41 +3073,43 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3314,36 +3157,36 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3351,10 +3194,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3366,17 +3209,15 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3386,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3401,13 +3242,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3425,13 +3266,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3449,12 +3290,12 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3477,16 +3318,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3536,7 +3377,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3557,15 +3398,15 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3588,17 +3429,15 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3647,7 +3486,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3656,10 +3495,10 @@
         <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3676,7 +3515,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3687,7 +3526,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3699,17 +3538,15 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3758,16 +3595,16 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>61</v>
@@ -3787,7 +3624,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3813,10 +3650,10 @@
         <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3867,7 +3704,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3885,7 +3722,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3896,11 +3733,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3919,16 +3756,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3978,7 +3815,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3990,13 +3827,13 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4007,11 +3844,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4030,19 +3867,19 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4091,7 +3928,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4103,7 +3940,7 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4120,7 +3957,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4128,7 +3965,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>49</v>
@@ -4143,15 +3980,17 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4176,13 +4015,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4200,10 +4039,10 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>49</v>
@@ -4229,7 +4068,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4237,7 +4076,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>49</v>
@@ -4252,15 +4091,17 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4309,10 +4150,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>49</v>
@@ -4338,7 +4179,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4349,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4361,13 +4202,13 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4418,19 +4259,19 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -4447,7 +4288,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4473,10 +4314,10 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4527,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4545,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4556,11 +4397,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4579,16 +4420,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4638,7 +4479,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4650,13 +4491,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4667,11 +4508,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4690,19 +4531,19 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4751,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4763,7 +4604,7 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
@@ -4780,7 +4621,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4788,10 +4629,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4803,13 +4644,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4836,13 +4677,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4860,13 +4701,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4889,7 +4730,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4897,7 +4738,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>49</v>
@@ -4912,16 +4753,16 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4971,10 +4812,10 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>49</v>
@@ -5000,7 +4841,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5023,13 +4864,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5080,7 +4921,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5092,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5109,7 +4950,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5132,13 +4973,13 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5189,7 +5030,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5198,7 +5039,7 @@
         <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>61</v>
@@ -5218,7 +5059,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5238,16 +5079,16 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5298,7 +5139,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5310,13 +5151,13 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5327,18 +5168,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5347,20 +5188,18 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5409,25 +5248,25 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5438,43 +5277,39 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5522,25 +5357,25 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5551,7 +5386,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5571,20 +5406,18 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5609,13 +5442,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5633,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5645,13 +5478,13 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5662,18 +5495,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5682,19 +5515,19 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5744,25 +5577,25 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5773,39 +5606,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5853,25 +5690,25 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5882,7 +5719,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5890,7 +5727,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>49</v>
@@ -5902,16 +5739,16 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5962,10 +5799,10 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>49</v>
@@ -5974,13 +5811,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -5991,18 +5828,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6011,20 +5848,18 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6073,25 +5908,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6102,43 +5937,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6186,25 +6019,25 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6215,7 +6048,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6223,7 +6056,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>49</v>
@@ -6238,15 +6071,17 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6271,13 +6106,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6295,10 +6130,10 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>49</v>
@@ -6324,7 +6159,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6332,7 +6167,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>49</v>
@@ -6347,16 +6182,16 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6406,10 +6241,10 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>49</v>
@@ -6418,7 +6253,7 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -6433,23 +6268,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6458,13 +6295,13 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6515,19 +6352,19 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -6544,7 +6381,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6564,16 +6401,16 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6624,7 +6461,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6636,13 +6473,13 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6653,18 +6490,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6673,18 +6510,20 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6733,25 +6572,25 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6762,39 +6601,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6842,25 +6685,25 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6871,7 +6714,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6882,7 +6725,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -6894,13 +6737,13 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6951,16 +6794,16 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>61</v>
@@ -6980,7 +6823,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7000,18 +6843,20 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7060,7 +6905,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7072,13 +6917,13 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7087,23 +6932,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7112,16 +6957,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7171,25 +7016,25 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7200,43 +7045,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7284,25 +7125,25 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7313,7 +7154,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7321,7 +7162,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>49</v>
@@ -7333,16 +7174,16 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7393,10 +7234,10 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>49</v>
@@ -7405,13 +7246,13 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7422,18 +7263,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7442,18 +7283,20 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7502,25 +7345,25 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7531,41 +7374,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7613,25 +7458,25 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7642,7 +7487,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7665,16 +7510,16 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7700,13 +7545,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7724,7 +7569,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7753,7 +7598,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7776,16 +7621,16 @@
         <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7835,7 +7680,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7847,7 +7692,7 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -7864,7 +7709,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7887,20 +7732,16 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -7948,7 +7789,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -7957,7 +7798,7 @@
         <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -7975,8 +7816,2103 @@
         <v>40</v>
       </c>
     </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM62">
+  <autoFilter ref="A1:AM81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7986,7 +9922,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}backport-notification-bundle-1:A notification bundle MUST have the BackportSubscriptionStatus as the first entry {entry.first().resource.is(SubscriptionStatus)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}backport-notification-bundle-1:A notification bundle MUST have the BackportSubscriptionStatus as the first entry {entry.first().resource.is(Parameters)}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -6283,7 +6283,7 @@
         <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>50</v>

--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -738,7 +738,7 @@
     <t>subscriptionStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {http://hl7.org/fhir/us/subscriptions-backport/StructureDefinition/backport-subscription-status}
+    <t xml:space="preserve">Parameters {http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/backport-subscription-status}
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="251">
   <si>
     <t>Path</t>
   </si>
@@ -488,6 +488,50 @@
   </si>
   <si>
     <t>Bundle.entry.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>focusResource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/subscription-notification-focus-resource}
+</t>
+  </si>
+  <si>
+    <t>Subscription Notification Focus Resource</t>
+  </si>
+  <si>
+    <t>Tagging for Bundle entries to indicate a resource is the focus of a specific notification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>includedResource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/subscription-notification-included-resource}
+</t>
+  </si>
+  <si>
+    <t>Subscription Notification Included Resource</t>
+  </si>
+  <si>
+    <t>Tagging for Bundle entries to indicate a resource is included because of a specific notification.</t>
   </si>
   <si>
     <t>Bundle.entry.modifierExtension</t>
@@ -918,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2968,7 +3012,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2990,14 +3034,12 @@
         <v>120</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3034,16 +3076,14 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>124</v>
@@ -3064,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3075,11 +3115,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3092,26 +3134,22 @@
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3159,7 +3197,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3168,16 +3206,16 @@
         <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3188,9 +3226,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3208,16 +3248,16 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3268,7 +3308,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3277,10 +3317,10 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3297,41 +3337,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3379,25 +3421,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3408,7 +3450,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3419,7 +3461,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3431,13 +3473,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3488,19 +3530,19 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3517,7 +3559,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3540,15 +3582,17 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3597,7 +3641,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3606,10 +3650,10 @@
         <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
@@ -3626,7 +3670,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3646,16 +3690,16 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3706,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3724,7 +3768,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3735,18 +3779,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3755,20 +3799,18 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3817,25 +3859,25 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3846,43 +3888,39 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3930,25 +3968,25 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3959,18 +3997,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -3979,19 +4017,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4017,13 +4055,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4041,25 +4079,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4070,41 +4108,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4152,25 +4192,25 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4181,7 +4221,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4204,15 +4244,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4237,13 +4279,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4261,7 +4303,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4270,10 +4312,10 @@
         <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -4290,7 +4332,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4310,18 +4352,20 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4370,7 +4414,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4382,13 +4426,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4399,18 +4443,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4419,20 +4463,18 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4481,25 +4523,25 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4510,43 +4552,39 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4594,25 +4632,25 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4623,18 +4661,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4643,18 +4681,20 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4679,13 +4719,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4703,25 +4743,25 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4732,41 +4772,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4814,25 +4856,25 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4843,7 +4885,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4851,7 +4893,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -4866,13 +4908,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4899,13 +4941,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -4923,10 +4965,10 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>50</v>
@@ -4952,7 +4994,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4960,7 +5002,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -4975,15 +5017,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5032,10 +5076,10 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>50</v>
@@ -5061,7 +5105,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5087,10 +5131,10 @@
         <v>133</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5141,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5170,7 +5214,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5193,13 +5237,13 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5250,7 +5294,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5279,7 +5323,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5302,13 +5346,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5359,7 +5403,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5368,10 +5412,10 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5388,7 +5432,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5408,16 +5452,16 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5468,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5480,13 +5524,13 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5497,18 +5541,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5517,20 +5561,18 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5579,25 +5621,25 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5608,43 +5650,39 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5692,25 +5730,25 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5721,18 +5759,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -5741,18 +5779,20 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -5801,25 +5841,25 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -5830,39 +5870,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -5910,25 +5954,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -5939,7 +5983,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5947,7 +5991,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>50</v>
@@ -5965,14 +6009,12 @@
         <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6021,10 +6063,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>50</v>
@@ -6050,7 +6092,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6073,17 +6115,15 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6132,7 +6172,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6161,7 +6201,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6184,16 +6224,16 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6243,7 +6283,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6255,7 +6295,7 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -6270,25 +6310,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6297,15 +6335,17 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6354,19 +6394,19 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -6383,7 +6423,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6403,18 +6443,20 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6463,7 +6505,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6481,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6490,42 +6532,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6574,7 +6616,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6586,13 +6628,13 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6603,43 +6645,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6687,25 +6725,25 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6716,11 +6754,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6736,18 +6774,20 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -6796,7 +6836,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6808,13 +6848,13 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -6825,41 +6865,43 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -6907,25 +6949,25 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -6934,9 +6976,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6944,13 +6986,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -6959,13 +7001,13 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7016,19 +7058,19 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7045,7 +7087,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7068,15 +7110,17 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7125,7 +7169,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7134,10 +7178,10 @@
         <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7152,9 +7196,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7162,28 +7206,28 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7234,7 +7278,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7252,7 +7296,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7263,18 +7307,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7283,20 +7327,18 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7345,25 +7387,25 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7374,43 +7416,39 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7458,25 +7496,25 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7487,18 +7525,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7507,19 +7545,19 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7545,13 +7583,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7569,25 +7607,25 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -7598,41 +7636,43 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7680,25 +7720,25 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -7709,7 +7749,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7732,15 +7772,17 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -7765,13 +7807,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -7789,7 +7831,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -7798,10 +7840,10 @@
         <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
@@ -7818,7 +7860,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7838,18 +7880,20 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -7898,7 +7942,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -7910,13 +7954,13 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -7927,18 +7971,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -7947,20 +7991,18 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8009,25 +8051,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8038,43 +8080,39 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8122,25 +8160,25 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8151,18 +8189,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8171,18 +8209,20 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8207,13 +8247,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8231,25 +8271,25 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8260,41 +8300,43 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8342,25 +8384,25 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8371,7 +8413,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8379,7 +8421,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
@@ -8394,13 +8436,13 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8427,13 +8469,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8451,10 +8493,10 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>50</v>
@@ -8480,7 +8522,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8488,7 +8530,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>50</v>
@@ -8503,15 +8545,17 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8560,10 +8604,10 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>50</v>
@@ -8589,7 +8633,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8615,10 +8659,10 @@
         <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8669,7 +8713,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8698,7 +8742,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8721,13 +8765,13 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8778,7 +8822,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -8807,7 +8851,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8830,13 +8874,13 @@
         <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8887,7 +8931,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -8896,10 +8940,10 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -8916,7 +8960,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8936,16 +8980,16 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8996,7 +9040,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9008,13 +9052,13 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9025,18 +9069,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9045,20 +9089,18 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9107,25 +9149,25 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9136,43 +9178,39 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9220,25 +9258,25 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9249,18 +9287,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9269,18 +9307,20 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9329,25 +9369,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9358,39 +9398,43 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9438,25 +9482,25 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9467,7 +9511,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9475,7 +9519,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>50</v>
@@ -9493,14 +9537,12 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -9549,10 +9591,10 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>50</v>
@@ -9578,7 +9620,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9601,17 +9643,15 @@
         <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -9660,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -9689,7 +9729,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9712,16 +9752,16 @@
         <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9771,7 +9811,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -9783,7 +9823,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -9800,7 +9840,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9823,20 +9863,18 @@
         <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -9884,7 +9922,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -9911,8 +9949,232 @@
         <v>40</v>
       </c>
     </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM81">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9922,7 +10184,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-backport-subscription-notification.xlsx
+++ b/docs/StructureDefinition-backport-subscription-notification.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="238">
   <si>
     <t>Path</t>
   </si>
@@ -488,50 +488,6 @@
   </si>
   <si>
     <t>Bundle.entry.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>focusResource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/subscription-notification-focus-resource}
-</t>
-  </si>
-  <si>
-    <t>Subscription Notification Focus Resource</t>
-  </si>
-  <si>
-    <t>Tagging for Bundle entries to indicate a resource is the focus of a specific notification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>includedResource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/subscriptions-backport/StructureDefinition/subscription-notification-included-resource}
-</t>
-  </si>
-  <si>
-    <t>Subscription Notification Included Resource</t>
-  </si>
-  <si>
-    <t>Tagging for Bundle entries to indicate a resource is included because of a specific notification.</t>
   </si>
   <si>
     <t>Bundle.entry.modifierExtension</t>
@@ -962,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3012,7 +2968,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3034,12 +2990,14 @@
         <v>120</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3076,14 +3034,16 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>124</v>
@@ -3104,7 +3064,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3115,13 +3075,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3134,22 +3092,26 @@
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3197,7 +3159,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3206,16 +3168,16 @@
         <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3226,11 +3188,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3248,16 +3208,16 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3308,7 +3268,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3317,10 +3277,10 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3337,43 +3297,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3421,25 +3379,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3450,7 +3408,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3461,7 +3419,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3473,13 +3431,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3530,19 +3488,19 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3559,7 +3517,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3582,17 +3540,15 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3641,7 +3597,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3650,10 +3606,10 @@
         <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
@@ -3670,7 +3626,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3690,16 +3646,16 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3750,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3768,7 +3724,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3779,18 +3735,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3799,18 +3755,20 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3859,25 +3817,25 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3888,39 +3846,43 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3968,25 +3930,25 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3997,18 +3959,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4017,19 +3979,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4055,13 +4017,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4079,25 +4041,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4108,43 +4070,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4192,25 +4152,25 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4221,7 +4181,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4244,17 +4204,15 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4279,13 +4237,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4303,7 +4261,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4312,10 +4270,10 @@
         <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -4332,7 +4290,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4352,20 +4310,18 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4414,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4426,13 +4382,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4443,18 +4399,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4463,18 +4419,20 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4523,25 +4481,25 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4552,39 +4510,43 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4632,25 +4594,25 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4661,18 +4623,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4681,20 +4643,18 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4719,13 +4679,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4743,25 +4703,25 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4772,43 +4732,41 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4856,25 +4814,25 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4885,7 +4843,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4893,7 +4851,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -4908,13 +4866,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4941,13 +4899,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -4965,10 +4923,10 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>50</v>
@@ -4994,7 +4952,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5002,7 +4960,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -5017,17 +4975,15 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5076,10 +5032,10 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>50</v>
@@ -5105,7 +5061,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5131,10 +5087,10 @@
         <v>133</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5185,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5214,7 +5170,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5237,13 +5193,13 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5294,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5323,7 +5279,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5346,13 +5302,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5403,7 +5359,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5412,10 +5368,10 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5432,7 +5388,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5452,16 +5408,16 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5512,7 +5468,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5524,13 +5480,13 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5541,18 +5497,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5561,18 +5517,20 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5621,25 +5579,25 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5650,39 +5608,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5730,25 +5692,25 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5759,18 +5721,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -5779,20 +5741,18 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -5841,25 +5801,25 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -5870,43 +5830,39 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -5954,25 +5910,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -5983,7 +5939,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5991,7 +5947,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>50</v>
@@ -6009,12 +5965,14 @@
         <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6063,10 +6021,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>50</v>
@@ -6092,7 +6050,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6115,15 +6073,17 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6172,7 +6132,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6201,7 +6161,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6224,16 +6184,16 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6283,7 +6243,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6295,7 +6255,7 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -6310,23 +6270,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6335,17 +6297,15 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6394,19 +6354,19 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -6423,7 +6383,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6443,20 +6403,18 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6505,7 +6463,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6523,7 +6481,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6532,42 +6490,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6616,7 +6574,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6628,13 +6586,13 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6645,39 +6603,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6725,25 +6687,25 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6754,11 +6716,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6774,20 +6736,18 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -6836,7 +6796,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6848,13 +6808,13 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -6865,43 +6825,41 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -6949,25 +6907,25 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -6976,9 +6934,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6986,13 +6944,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7001,13 +6959,13 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7058,19 +7016,19 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7087,7 +7045,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7110,17 +7068,15 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7169,7 +7125,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7178,10 +7134,10 @@
         <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7196,9 +7152,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7206,28 +7162,28 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7278,7 +7234,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7296,7 +7252,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7307,18 +7263,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7327,18 +7283,20 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7387,25 +7345,25 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7416,39 +7374,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7496,25 +7458,25 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7525,18 +7487,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7545,19 +7507,19 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7583,13 +7545,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7607,25 +7569,25 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -7636,43 +7598,41 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7720,25 +7680,25 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -7749,7 +7709,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7772,17 +7732,15 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -7807,13 +7765,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -7831,7 +7789,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -7840,10 +7798,10 @@
         <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
@@ -7860,7 +7818,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7880,20 +7838,18 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -7942,7 +7898,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -7954,13 +7910,13 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -7971,18 +7927,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -7991,18 +7947,20 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8051,25 +8009,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8080,39 +8038,43 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8160,25 +8122,25 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8189,18 +8151,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8209,20 +8171,18 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8247,13 +8207,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8271,25 +8231,25 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8300,43 +8260,41 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8384,25 +8342,25 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8413,7 +8371,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8421,7 +8379,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
@@ -8436,13 +8394,13 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8469,13 +8427,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8493,10 +8451,10 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>50</v>
@@ -8522,7 +8480,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8530,7 +8488,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>50</v>
@@ -8545,17 +8503,15 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8604,10 +8560,10 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>50</v>
@@ -8633,7 +8589,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8659,10 +8615,10 @@
         <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8713,7 +8669,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8742,7 +8698,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8765,13 +8721,13 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8822,7 +8778,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -8851,7 +8807,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8874,13 +8830,13 @@
         <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8931,7 +8887,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -8940,10 +8896,10 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -8960,7 +8916,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8980,16 +8936,16 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9040,7 +8996,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9052,13 +9008,13 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9069,18 +9025,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9089,18 +9045,20 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9149,25 +9107,25 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9178,39 +9136,43 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9258,25 +9220,25 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9287,18 +9249,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9307,20 +9269,18 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9369,25 +9329,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9398,43 +9358,39 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9482,25 +9438,25 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9511,7 +9467,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9519,7 +9475,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>50</v>
@@ -9537,12 +9493,14 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -9591,10 +9549,10 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>50</v>
@@ -9620,7 +9578,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9643,15 +9601,17 @@
         <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -9700,7 +9660,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -9729,7 +9689,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9752,16 +9712,16 @@
         <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9811,7 +9771,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -9823,7 +9783,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -9840,7 +9800,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9863,18 +9823,20 @@
         <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -9922,7 +9884,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -9949,232 +9911,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10184,7 +9922,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
